--- a/Import/Inventories/uom_template.xlsx
+++ b/Import/Inventories/uom_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\McDermott\Git\Import\Inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT Repositories\McDermott\Import\Inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF9E0B8-C004-417E-B0D4-5C60619D5414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC203AF6-FA5E-4F9B-A850-D40703BCE6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -144,13 +144,22 @@
   </si>
   <si>
     <t>Papale</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>Set</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -161,6 +170,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,10 +212,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -222,7 +239,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E16" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table" displayName="Table" ref="A1:E19" headerRowCount="0">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="UoM Category"/>
@@ -492,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="81" defaultRowHeight="14.4"/>
@@ -779,6 +796,57 @@
         <v>7</v>
       </c>
     </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
